--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 AG.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 AG.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="346">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
   <si>
     <t>Course</t>
   </si>
@@ -643,7 +643,28 @@
     <t>MILES B</t>
   </si>
   <si>
-    <t>39.29%</t>
+    <t>22.22%</t>
+  </si>
+  <si>
+    <t>17.78%</t>
+  </si>
+  <si>
+    <t>6.67%</t>
+  </si>
+  <si>
+    <t>BICH-412</t>
+  </si>
+  <si>
+    <t>AYRES N</t>
+  </si>
+  <si>
+    <t>BICH-491</t>
+  </si>
+  <si>
+    <t>PETERSON D</t>
+  </si>
+  <si>
+    <t>KUNKEL G</t>
   </si>
   <si>
     <t>BICH-697</t>
@@ -661,9 +682,6 @@
     <t>44.44%</t>
   </si>
   <si>
-    <t>22.22%</t>
-  </si>
-  <si>
     <t>ENTO-320</t>
   </si>
   <si>
@@ -682,6 +700,33 @@
     <t>5.77%</t>
   </si>
   <si>
+    <t>ENTO-322</t>
+  </si>
+  <si>
+    <t>GOLD R</t>
+  </si>
+  <si>
+    <t>25.88%</t>
+  </si>
+  <si>
+    <t>54.12%</t>
+  </si>
+  <si>
+    <t>18.82%</t>
+  </si>
+  <si>
+    <t>1.18%</t>
+  </si>
+  <si>
+    <t>ENTO-450</t>
+  </si>
+  <si>
+    <t>ENTO-451</t>
+  </si>
+  <si>
+    <t>66.67%</t>
+  </si>
+  <si>
     <t>ESSM-300</t>
   </si>
   <si>
@@ -715,6 +760,27 @@
     <t>KREUTER U</t>
   </si>
   <si>
+    <t>ESSM-651</t>
+  </si>
+  <si>
+    <t>FIVS-123</t>
+  </si>
+  <si>
+    <t>HEINZ K</t>
+  </si>
+  <si>
+    <t>31.25%</t>
+  </si>
+  <si>
+    <t>40.63%</t>
+  </si>
+  <si>
+    <t>21.88%</t>
+  </si>
+  <si>
+    <t>6.25%</t>
+  </si>
+  <si>
     <t>FIVS-205</t>
   </si>
   <si>
@@ -790,181 +856,214 @@
     <t>MCKINLEY W</t>
   </si>
   <si>
+    <t>82.26%</t>
+  </si>
+  <si>
+    <t>11.29%</t>
+  </si>
+  <si>
+    <t>HORT-440</t>
+  </si>
+  <si>
+    <t>LOMBARDINI L</t>
+  </si>
+  <si>
+    <t>88.89%</t>
+  </si>
+  <si>
+    <t>NUTR-202</t>
+  </si>
+  <si>
+    <t>GEISMAR K</t>
+  </si>
+  <si>
+    <t>40.00%</t>
+  </si>
+  <si>
+    <t>36.67%</t>
+  </si>
+  <si>
+    <t>10.00%</t>
+  </si>
+  <si>
+    <t>NUTR-301</t>
+  </si>
+  <si>
+    <t>KUBENA K</t>
+  </si>
+  <si>
+    <t>NUTR-303</t>
+  </si>
+  <si>
+    <t>NUTR-430</t>
+  </si>
+  <si>
+    <t>LORENZ S</t>
+  </si>
+  <si>
+    <t>35.56%</t>
+  </si>
+  <si>
+    <t>46.67%</t>
+  </si>
+  <si>
+    <t>15.56%</t>
+  </si>
+  <si>
+    <t>2.22%</t>
+  </si>
+  <si>
+    <t>NUTR-481</t>
+  </si>
+  <si>
+    <t>NUTR-485</t>
+  </si>
+  <si>
+    <t>NUTR-489</t>
+  </si>
+  <si>
+    <t>PLPA-623</t>
+  </si>
+  <si>
+    <t>RENR-375</t>
+  </si>
+  <si>
+    <t>WALLEN K</t>
+  </si>
+  <si>
+    <t>52.50%</t>
+  </si>
+  <si>
+    <t>RENR-400</t>
+  </si>
+  <si>
+    <t>KYLE G</t>
+  </si>
+  <si>
+    <t>86.67%</t>
+  </si>
+  <si>
+    <t>13.33%</t>
+  </si>
+  <si>
+    <t>RENR-405</t>
+  </si>
+  <si>
+    <t>45.83%</t>
+  </si>
+  <si>
+    <t>20.83%</t>
+  </si>
+  <si>
+    <t>RPTS-201</t>
+  </si>
+  <si>
+    <t>KYLE K</t>
+  </si>
+  <si>
+    <t>27.27%</t>
+  </si>
+  <si>
+    <t>4.55%</t>
+  </si>
+  <si>
+    <t>RPTS-300</t>
+  </si>
+  <si>
+    <t>DURKO A</t>
+  </si>
+  <si>
+    <t>92.86%</t>
+  </si>
+  <si>
+    <t>RPTS-301</t>
+  </si>
+  <si>
+    <t>DENNIS K</t>
+  </si>
+  <si>
+    <t>53.13%</t>
+  </si>
+  <si>
+    <t>RPTS-302</t>
+  </si>
+  <si>
+    <t>LELO L</t>
+  </si>
+  <si>
+    <t>80.77%</t>
+  </si>
+  <si>
+    <t>RPTS-304</t>
+  </si>
+  <si>
+    <t>FOX R</t>
+  </si>
+  <si>
+    <t>RPTS-311</t>
+  </si>
+  <si>
+    <t>SHAFER D</t>
+  </si>
+  <si>
+    <t>68.18%</t>
+  </si>
+  <si>
+    <t>RPTS-331</t>
+  </si>
+  <si>
+    <t>MIGACZ S</t>
+  </si>
+  <si>
+    <t>41.38%</t>
+  </si>
+  <si>
+    <t>44.83%</t>
+  </si>
+  <si>
+    <t>6.90%</t>
+  </si>
+  <si>
+    <t>3.45%</t>
+  </si>
+  <si>
+    <t>RPTS-336</t>
+  </si>
+  <si>
+    <t>WOOSNAM K</t>
+  </si>
+  <si>
+    <t>19.05%</t>
+  </si>
+  <si>
+    <t>RPTS-340</t>
+  </si>
+  <si>
+    <t>45.16%</t>
+  </si>
+  <si>
+    <t>38.71%</t>
+  </si>
+  <si>
+    <t>9.68%</t>
+  </si>
+  <si>
+    <t>3.23%</t>
+  </si>
+  <si>
+    <t>RPTS-370</t>
+  </si>
+  <si>
+    <t>WU Y</t>
+  </si>
+  <si>
+    <t>RPTS-403</t>
+  </si>
+  <si>
+    <t>RPTS-423</t>
+  </si>
+  <si>
     <t>79.17%</t>
-  </si>
-  <si>
-    <t>14.58%</t>
-  </si>
-  <si>
-    <t>NUTR-202</t>
-  </si>
-  <si>
-    <t>GEISMAR K</t>
-  </si>
-  <si>
-    <t>40.00%</t>
-  </si>
-  <si>
-    <t>36.67%</t>
-  </si>
-  <si>
-    <t>10.00%</t>
-  </si>
-  <si>
-    <t>NUTR-301</t>
-  </si>
-  <si>
-    <t>KUBENA K</t>
-  </si>
-  <si>
-    <t>NUTR-303</t>
-  </si>
-  <si>
-    <t>NUTR-481</t>
-  </si>
-  <si>
-    <t>NUTR-485</t>
-  </si>
-  <si>
-    <t>NUTR-489</t>
-  </si>
-  <si>
-    <t>PLPA-623</t>
-  </si>
-  <si>
-    <t>RENR-375</t>
-  </si>
-  <si>
-    <t>WALLEN K</t>
-  </si>
-  <si>
-    <t>52.50%</t>
-  </si>
-  <si>
-    <t>RENR-400</t>
-  </si>
-  <si>
-    <t>KYLE G</t>
-  </si>
-  <si>
-    <t>RENR-405</t>
-  </si>
-  <si>
-    <t>45.83%</t>
-  </si>
-  <si>
-    <t>20.83%</t>
-  </si>
-  <si>
-    <t>RPTS-201</t>
-  </si>
-  <si>
-    <t>KYLE K</t>
-  </si>
-  <si>
-    <t>27.27%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
-  </si>
-  <si>
-    <t>RPTS-300</t>
-  </si>
-  <si>
-    <t>DURKO A</t>
-  </si>
-  <si>
-    <t>92.86%</t>
-  </si>
-  <si>
-    <t>RPTS-301</t>
-  </si>
-  <si>
-    <t>DENNIS K</t>
-  </si>
-  <si>
-    <t>53.13%</t>
-  </si>
-  <si>
-    <t>40.63%</t>
-  </si>
-  <si>
-    <t>6.25%</t>
-  </si>
-  <si>
-    <t>RPTS-302</t>
-  </si>
-  <si>
-    <t>LELO L</t>
-  </si>
-  <si>
-    <t>80.77%</t>
-  </si>
-  <si>
-    <t>RPTS-311</t>
-  </si>
-  <si>
-    <t>SHAFER D</t>
-  </si>
-  <si>
-    <t>68.18%</t>
-  </si>
-  <si>
-    <t>RPTS-331</t>
-  </si>
-  <si>
-    <t>MIGACZ S</t>
-  </si>
-  <si>
-    <t>41.38%</t>
-  </si>
-  <si>
-    <t>44.83%</t>
-  </si>
-  <si>
-    <t>6.90%</t>
-  </si>
-  <si>
-    <t>3.45%</t>
-  </si>
-  <si>
-    <t>RPTS-336</t>
-  </si>
-  <si>
-    <t>WOOSNAM K</t>
-  </si>
-  <si>
-    <t>19.05%</t>
-  </si>
-  <si>
-    <t>RPTS-340</t>
-  </si>
-  <si>
-    <t>45.16%</t>
-  </si>
-  <si>
-    <t>38.71%</t>
-  </si>
-  <si>
-    <t>9.68%</t>
-  </si>
-  <si>
-    <t>3.23%</t>
-  </si>
-  <si>
-    <t>RPTS-370</t>
-  </si>
-  <si>
-    <t>WU Y</t>
-  </si>
-  <si>
-    <t>RPTS-403</t>
-  </si>
-  <si>
-    <t>FOX R</t>
-  </si>
-  <si>
-    <t>RPTS-423</t>
   </si>
   <si>
     <t>RPTS-484</t>
@@ -1388,7 +1487,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2914,44 +3013,44 @@
         <v>208</v>
       </c>
       <c r="C153" t="n">
-        <v>2.357</v>
+        <v>2.493</v>
       </c>
       <c r="D153" t="s">
-        <v>35</v>
+        <v>209</v>
       </c>
       <c r="E153" t="s">
-        <v>209</v>
+        <v>87</v>
       </c>
       <c r="F153" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="G153" t="s">
-        <v>170</v>
+        <v>210</v>
       </c>
       <c r="H153" t="s">
-        <v>12</v>
+        <v>211</v>
       </c>
     </row>
     <row r="155" spans="1:8">
       <c r="A155" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="156" spans="1:8">
       <c r="B156" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="C156" t="n">
-        <v>4</v>
+        <v>3.331</v>
       </c>
       <c r="D156" t="s">
-        <v>72</v>
+        <v>119</v>
       </c>
       <c r="E156" t="s">
-        <v>13</v>
+        <v>119</v>
       </c>
       <c r="F156" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="G156" t="s">
         <v>13</v>
@@ -2962,1284 +3061,1610 @@
     </row>
     <row r="158" spans="1:8">
       <c r="A158" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
     </row>
     <row r="159" spans="1:8">
       <c r="B159" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C159" t="n">
+        <v>4</v>
+      </c>
+      <c r="D159" t="s">
+        <v>72</v>
+      </c>
+      <c r="E159" t="s">
+        <v>13</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>13</v>
+      </c>
+      <c r="H159" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8">
+      <c r="B160" t="s">
+        <v>216</v>
+      </c>
+      <c r="C160" t="n">
+        <v>4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>72</v>
+      </c>
+      <c r="E160" t="s">
+        <v>13</v>
+      </c>
+      <c r="F160" t="s">
+        <v>13</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
+      <c r="H160" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8">
+      <c r="A162" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8">
+      <c r="B163" t="s">
+        <v>218</v>
+      </c>
+      <c r="C163" t="n">
+        <v>4</v>
+      </c>
+      <c r="D163" t="s">
+        <v>72</v>
+      </c>
+      <c r="E163" t="s">
+        <v>13</v>
+      </c>
+      <c r="F163" t="s">
+        <v>13</v>
+      </c>
+      <c r="G163" t="s">
+        <v>13</v>
+      </c>
+      <c r="H163" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8">
+      <c r="A165" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8">
+      <c r="B166" t="s">
+        <v>220</v>
+      </c>
+      <c r="C166" t="n">
         <v>3.222</v>
       </c>
-      <c r="D159" t="s">
-        <v>214</v>
-      </c>
-      <c r="E159" t="s">
+      <c r="D166" t="s">
+        <v>221</v>
+      </c>
+      <c r="E166" t="s">
         <v>87</v>
       </c>
-      <c r="F159" t="s">
-        <v>215</v>
-      </c>
-      <c r="G159" t="s">
-        <v>13</v>
-      </c>
-      <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
-      <c r="A161" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
-      <c r="B162" t="s">
-        <v>217</v>
-      </c>
-      <c r="C162" t="n">
+      <c r="F166" t="s">
+        <v>209</v>
+      </c>
+      <c r="G166" t="s">
+        <v>13</v>
+      </c>
+      <c r="H166" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8">
+      <c r="A168" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8">
+      <c r="B169" t="s">
+        <v>223</v>
+      </c>
+      <c r="C169" t="n">
         <v>2.646</v>
       </c>
-      <c r="D162" t="s">
-        <v>218</v>
-      </c>
-      <c r="E162" t="s">
-        <v>219</v>
-      </c>
-      <c r="F162" t="s">
+      <c r="D169" t="s">
+        <v>224</v>
+      </c>
+      <c r="E169" t="s">
+        <v>225</v>
+      </c>
+      <c r="F169" t="s">
+        <v>226</v>
+      </c>
+      <c r="G169" t="s">
+        <v>227</v>
+      </c>
+      <c r="H169" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8">
+      <c r="A171" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8">
+      <c r="B172" t="s">
+        <v>229</v>
+      </c>
+      <c r="C172" t="n">
+        <v>3.035</v>
+      </c>
+      <c r="D172" t="s">
+        <v>230</v>
+      </c>
+      <c r="E172" t="s">
+        <v>231</v>
+      </c>
+      <c r="F172" t="s">
+        <v>232</v>
+      </c>
+      <c r="G172" t="s">
+        <v>13</v>
+      </c>
+      <c r="H172" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8">
+      <c r="A174" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8">
+      <c r="B175" t="s">
         <v>220</v>
       </c>
-      <c r="G162" t="s">
-        <v>221</v>
-      </c>
-      <c r="H162" t="s">
+      <c r="C175" t="n">
+        <v>3.778</v>
+      </c>
+      <c r="D175" t="s">
+        <v>195</v>
+      </c>
+      <c r="E175" t="s">
+        <v>209</v>
+      </c>
+      <c r="F175" t="s">
+        <v>13</v>
+      </c>
+      <c r="G175" t="s">
+        <v>13</v>
+      </c>
+      <c r="H175" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8">
+      <c r="A177" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8">
+      <c r="B178" t="s">
+        <v>220</v>
+      </c>
+      <c r="C178" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D178" t="s">
+        <v>87</v>
+      </c>
+      <c r="E178" t="s">
+        <v>236</v>
+      </c>
+      <c r="F178" t="s">
+        <v>13</v>
+      </c>
+      <c r="G178" t="s">
+        <v>13</v>
+      </c>
+      <c r="H178" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8">
+      <c r="A180" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8">
+      <c r="B181" t="s">
+        <v>238</v>
+      </c>
+      <c r="C181" t="n">
+        <v>4</v>
+      </c>
+      <c r="D181" t="s">
+        <v>72</v>
+      </c>
+      <c r="E181" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" t="s">
+        <v>13</v>
+      </c>
+      <c r="G181" t="s">
+        <v>13</v>
+      </c>
+      <c r="H181" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8">
+      <c r="A183" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8">
+      <c r="B184" t="s">
+        <v>240</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.111</v>
+      </c>
+      <c r="D184" t="s">
+        <v>196</v>
+      </c>
+      <c r="E184" t="s">
+        <v>209</v>
+      </c>
+      <c r="F184" t="s">
+        <v>241</v>
+      </c>
+      <c r="G184" t="s">
+        <v>242</v>
+      </c>
+      <c r="H184" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8">
+      <c r="A186" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8">
+      <c r="B187" t="s">
+        <v>245</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.538</v>
+      </c>
+      <c r="D187" t="s">
+        <v>51</v>
+      </c>
+      <c r="E187" t="s">
+        <v>224</v>
+      </c>
+      <c r="F187" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="164" spans="1:8">
-      <c r="A164" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
-      <c r="B165" t="s">
-        <v>223</v>
-      </c>
-      <c r="C165" t="n">
+      <c r="G187" t="s">
+        <v>132</v>
+      </c>
+      <c r="H187" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8">
+      <c r="A189" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8">
+      <c r="B190" t="s">
+        <v>247</v>
+      </c>
+      <c r="C190" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>22</v>
+      </c>
+      <c r="E190" t="s">
+        <v>41</v>
+      </c>
+      <c r="F190" t="s">
+        <v>13</v>
+      </c>
+      <c r="G190" t="s">
+        <v>13</v>
+      </c>
+      <c r="H190" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8">
+      <c r="A192" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8">
+      <c r="B193" t="s">
+        <v>245</v>
+      </c>
+      <c r="C193" t="n">
+        <v>3.714</v>
+      </c>
+      <c r="D193" t="s">
+        <v>84</v>
+      </c>
+      <c r="E193" t="s">
+        <v>11</v>
+      </c>
+      <c r="F193" t="s">
+        <v>13</v>
+      </c>
+      <c r="G193" t="s">
+        <v>13</v>
+      </c>
+      <c r="H193" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8">
+      <c r="A195" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8">
+      <c r="B196" t="s">
+        <v>250</v>
+      </c>
+      <c r="C196" t="n">
+        <v>2.969</v>
+      </c>
+      <c r="D196" t="s">
+        <v>251</v>
+      </c>
+      <c r="E196" t="s">
+        <v>252</v>
+      </c>
+      <c r="F196" t="s">
+        <v>253</v>
+      </c>
+      <c r="G196" t="s">
+        <v>254</v>
+      </c>
+      <c r="H196" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8">
+      <c r="A198" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8">
+      <c r="B199" t="s">
+        <v>256</v>
+      </c>
+      <c r="C199" t="n">
+        <v>3.333</v>
+      </c>
+      <c r="D199" t="s">
+        <v>257</v>
+      </c>
+      <c r="E199" t="s">
+        <v>27</v>
+      </c>
+      <c r="F199" t="s">
+        <v>258</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
+      <c r="H199" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8">
+      <c r="A201" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8">
+      <c r="B202" t="s">
+        <v>260</v>
+      </c>
+      <c r="C202" t="n">
         <v>4</v>
       </c>
-      <c r="D165" t="s">
+      <c r="D202" t="s">
         <v>72</v>
       </c>
-      <c r="E165" t="s">
-        <v>13</v>
-      </c>
-      <c r="F165" t="s">
-        <v>13</v>
-      </c>
-      <c r="G165" t="s">
-        <v>13</v>
-      </c>
-      <c r="H165" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
-      <c r="A167" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
-      <c r="B168" t="s">
-        <v>225</v>
-      </c>
-      <c r="C168" t="n">
-        <v>2.111</v>
-      </c>
-      <c r="D168" t="s">
+      <c r="E202" t="s">
+        <v>13</v>
+      </c>
+      <c r="F202" t="s">
+        <v>13</v>
+      </c>
+      <c r="G202" t="s">
+        <v>13</v>
+      </c>
+      <c r="H202" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8">
+      <c r="A204" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8">
+      <c r="B205" t="s">
+        <v>262</v>
+      </c>
+      <c r="C205" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D205" t="s">
+        <v>263</v>
+      </c>
+      <c r="E205" t="s">
+        <v>264</v>
+      </c>
+      <c r="F205" t="s">
+        <v>265</v>
+      </c>
+      <c r="G205" t="s">
+        <v>266</v>
+      </c>
+      <c r="H205" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8">
+      <c r="A207" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8">
+      <c r="B208" t="s">
+        <v>268</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4</v>
+      </c>
+      <c r="D208" t="s">
+        <v>72</v>
+      </c>
+      <c r="E208" t="s">
+        <v>13</v>
+      </c>
+      <c r="F208" t="s">
+        <v>13</v>
+      </c>
+      <c r="G208" t="s">
+        <v>13</v>
+      </c>
+      <c r="H208" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8">
+      <c r="A210" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8">
+      <c r="B211" t="s">
+        <v>270</v>
+      </c>
+      <c r="C211" t="n">
+        <v>2.724</v>
+      </c>
+      <c r="D211" t="s">
+        <v>271</v>
+      </c>
+      <c r="E211" t="s">
+        <v>272</v>
+      </c>
+      <c r="F211" t="s">
+        <v>28</v>
+      </c>
+      <c r="G211" t="s">
+        <v>12</v>
+      </c>
+      <c r="H211" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8">
+      <c r="A213" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8">
+      <c r="B214" t="s">
+        <v>275</v>
+      </c>
+      <c r="C214" t="n">
+        <v>2.81</v>
+      </c>
+      <c r="D214" t="s">
+        <v>272</v>
+      </c>
+      <c r="E214" t="s">
+        <v>276</v>
+      </c>
+      <c r="F214" t="s">
+        <v>87</v>
+      </c>
+      <c r="G214" t="s">
+        <v>277</v>
+      </c>
+      <c r="H214" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8">
+      <c r="A216" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8">
+      <c r="B217" t="s">
+        <v>279</v>
+      </c>
+      <c r="C217" t="n">
+        <v>3.7485</v>
+      </c>
+      <c r="D217" t="s">
+        <v>280</v>
+      </c>
+      <c r="E217" t="s">
+        <v>281</v>
+      </c>
+      <c r="F217" t="s">
+        <v>139</v>
+      </c>
+      <c r="G217" t="s">
+        <v>141</v>
+      </c>
+      <c r="H217" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8">
+      <c r="A219" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8">
+      <c r="B220" t="s">
+        <v>283</v>
+      </c>
+      <c r="C220" t="n">
+        <v>3.889</v>
+      </c>
+      <c r="D220" t="s">
+        <v>284</v>
+      </c>
+      <c r="E220" t="s">
         <v>196</v>
       </c>
-      <c r="E168" t="s">
-        <v>215</v>
-      </c>
-      <c r="F168" t="s">
-        <v>226</v>
-      </c>
-      <c r="G168" t="s">
+      <c r="F220" t="s">
+        <v>13</v>
+      </c>
+      <c r="G220" t="s">
+        <v>13</v>
+      </c>
+      <c r="H220" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8">
+      <c r="A222" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8">
+      <c r="B223" t="s">
+        <v>286</v>
+      </c>
+      <c r="C223" t="n">
+        <v>2.933</v>
+      </c>
+      <c r="D223" t="s">
+        <v>287</v>
+      </c>
+      <c r="E223" t="s">
+        <v>288</v>
+      </c>
+      <c r="F223" t="s">
+        <v>289</v>
+      </c>
+      <c r="G223" t="s">
+        <v>24</v>
+      </c>
+      <c r="H223" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8">
+      <c r="A225" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8">
+      <c r="B226" t="s">
+        <v>291</v>
+      </c>
+      <c r="C226" t="n">
+        <v>3.357</v>
+      </c>
+      <c r="D226" t="s">
+        <v>27</v>
+      </c>
+      <c r="E226" t="s">
+        <v>28</v>
+      </c>
+      <c r="F226" t="s">
+        <v>35</v>
+      </c>
+      <c r="G226" t="s">
+        <v>13</v>
+      </c>
+      <c r="H226" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8">
+      <c r="A228" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8">
+      <c r="B229" t="s">
+        <v>159</v>
+      </c>
+      <c r="C229" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="D229" t="s">
+        <v>171</v>
+      </c>
+      <c r="E229" t="s">
+        <v>13</v>
+      </c>
+      <c r="F229" t="s">
+        <v>41</v>
+      </c>
+      <c r="G229" t="s">
+        <v>13</v>
+      </c>
+      <c r="H229" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8">
+      <c r="A231" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8">
+      <c r="B232" t="s">
+        <v>294</v>
+      </c>
+      <c r="C232" t="n">
+        <v>3.1605</v>
+      </c>
+      <c r="D232" t="s">
+        <v>295</v>
+      </c>
+      <c r="E232" t="s">
+        <v>296</v>
+      </c>
+      <c r="F232" t="s">
+        <v>297</v>
+      </c>
+      <c r="G232" t="s">
+        <v>298</v>
+      </c>
+      <c r="H232" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8">
+      <c r="A234" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8">
+      <c r="B235" t="s">
+        <v>286</v>
+      </c>
+      <c r="C235" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="D235" t="s">
+        <v>23</v>
+      </c>
+      <c r="E235" t="s">
+        <v>263</v>
+      </c>
+      <c r="F235" t="s">
+        <v>258</v>
+      </c>
+      <c r="G235" t="s">
+        <v>258</v>
+      </c>
+      <c r="H235" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8">
+      <c r="A237" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8">
+      <c r="B238" t="s">
+        <v>268</v>
+      </c>
+      <c r="C238" t="n">
+        <v>4</v>
+      </c>
+      <c r="D238" t="s">
+        <v>72</v>
+      </c>
+      <c r="E238" t="s">
+        <v>13</v>
+      </c>
+      <c r="F238" t="s">
+        <v>13</v>
+      </c>
+      <c r="G238" t="s">
+        <v>13</v>
+      </c>
+      <c r="H238" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8">
+      <c r="A240" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8">
+      <c r="B241" t="s">
+        <v>268</v>
+      </c>
+      <c r="C241" t="n">
+        <v>4</v>
+      </c>
+      <c r="D241" t="s">
+        <v>72</v>
+      </c>
+      <c r="E241" t="s">
+        <v>13</v>
+      </c>
+      <c r="F241" t="s">
+        <v>13</v>
+      </c>
+      <c r="G241" t="s">
+        <v>13</v>
+      </c>
+      <c r="H241" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8">
+      <c r="A243" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8">
+      <c r="B244" t="s">
+        <v>194</v>
+      </c>
+      <c r="C244" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="D244" t="s">
+        <v>22</v>
+      </c>
+      <c r="E244" t="s">
+        <v>41</v>
+      </c>
+      <c r="F244" t="s">
+        <v>13</v>
+      </c>
+      <c r="G244" t="s">
+        <v>13</v>
+      </c>
+      <c r="H244" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8">
+      <c r="A246" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8">
+      <c r="B247" t="s">
+        <v>304</v>
+      </c>
+      <c r="C247" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D247" t="s">
+        <v>305</v>
+      </c>
+      <c r="E247" t="s">
+        <v>37</v>
+      </c>
+      <c r="F247" t="s">
+        <v>91</v>
+      </c>
+      <c r="G247" t="s">
+        <v>98</v>
+      </c>
+      <c r="H247" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8">
+      <c r="A249" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8">
+      <c r="B250" t="s">
+        <v>307</v>
+      </c>
+      <c r="C250" t="n">
+        <v>4</v>
+      </c>
+      <c r="D250" t="s">
+        <v>72</v>
+      </c>
+      <c r="E250" t="s">
+        <v>13</v>
+      </c>
+      <c r="F250" t="s">
+        <v>13</v>
+      </c>
+      <c r="G250" t="s">
+        <v>13</v>
+      </c>
+      <c r="H250" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8">
+      <c r="B251" t="s">
+        <v>247</v>
+      </c>
+      <c r="C251" t="n">
+        <v>3.867</v>
+      </c>
+      <c r="D251" t="s">
+        <v>308</v>
+      </c>
+      <c r="E251" t="s">
+        <v>309</v>
+      </c>
+      <c r="F251" t="s">
+        <v>13</v>
+      </c>
+      <c r="G251" t="s">
+        <v>13</v>
+      </c>
+      <c r="H251" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8">
+      <c r="A253" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8">
+      <c r="B254" t="s">
+        <v>245</v>
+      </c>
+      <c r="C254" t="n">
+        <v>2.333</v>
+      </c>
+      <c r="D254" t="s">
+        <v>258</v>
+      </c>
+      <c r="E254" t="s">
+        <v>311</v>
+      </c>
+      <c r="F254" t="s">
+        <v>312</v>
+      </c>
+      <c r="G254" t="s">
+        <v>312</v>
+      </c>
+      <c r="H254" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8">
+      <c r="A256" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8">
+      <c r="B257" t="s">
+        <v>314</v>
+      </c>
+      <c r="C257" t="n">
+        <v>3.273</v>
+      </c>
+      <c r="D257" t="s">
+        <v>155</v>
+      </c>
+      <c r="E257" t="s">
+        <v>315</v>
+      </c>
+      <c r="F257" t="s">
+        <v>181</v>
+      </c>
+      <c r="G257" t="s">
+        <v>13</v>
+      </c>
+      <c r="H257" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8">
+      <c r="A259" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8">
+      <c r="B260" t="s">
+        <v>318</v>
+      </c>
+      <c r="C260" t="n">
+        <v>3.929</v>
+      </c>
+      <c r="D260" t="s">
+        <v>319</v>
+      </c>
+      <c r="E260" t="s">
+        <v>12</v>
+      </c>
+      <c r="F260" t="s">
+        <v>13</v>
+      </c>
+      <c r="G260" t="s">
+        <v>13</v>
+      </c>
+      <c r="H260" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8">
+      <c r="A262" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8">
+      <c r="B263" t="s">
+        <v>321</v>
+      </c>
+      <c r="C263" t="n">
+        <v>3.469</v>
+      </c>
+      <c r="D263" t="s">
+        <v>322</v>
+      </c>
+      <c r="E263" t="s">
+        <v>252</v>
+      </c>
+      <c r="F263" t="s">
+        <v>254</v>
+      </c>
+      <c r="G263" t="s">
+        <v>13</v>
+      </c>
+      <c r="H263" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8">
+      <c r="A265" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8">
+      <c r="B266" t="s">
+        <v>324</v>
+      </c>
+      <c r="C266" t="n">
+        <v>3.692</v>
+      </c>
+      <c r="D266" t="s">
+        <v>325</v>
+      </c>
+      <c r="E266" t="s">
+        <v>53</v>
+      </c>
+      <c r="F266" t="s">
+        <v>54</v>
+      </c>
+      <c r="G266" t="s">
+        <v>54</v>
+      </c>
+      <c r="H266" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8">
+      <c r="A268" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8">
+      <c r="B269" t="s">
+        <v>327</v>
+      </c>
+      <c r="C269" t="n">
+        <v>3.167</v>
+      </c>
+      <c r="D269" t="s">
+        <v>236</v>
+      </c>
+      <c r="E269" t="s">
+        <v>13</v>
+      </c>
+      <c r="F269" t="s">
+        <v>23</v>
+      </c>
+      <c r="G269" t="s">
+        <v>23</v>
+      </c>
+      <c r="H269" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8">
+      <c r="A271" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8">
+      <c r="B272" t="s">
+        <v>329</v>
+      </c>
+      <c r="C272" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D272" t="s">
+        <v>330</v>
+      </c>
+      <c r="E272" t="s">
+        <v>179</v>
+      </c>
+      <c r="F272" t="s">
+        <v>316</v>
+      </c>
+      <c r="G272" t="s">
+        <v>13</v>
+      </c>
+      <c r="H272" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8">
+      <c r="A274" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8">
+      <c r="B275" t="s">
+        <v>332</v>
+      </c>
+      <c r="C275" t="n">
+        <v>3.172</v>
+      </c>
+      <c r="D275" t="s">
+        <v>333</v>
+      </c>
+      <c r="E275" t="s">
+        <v>334</v>
+      </c>
+      <c r="F275" t="s">
+        <v>335</v>
+      </c>
+      <c r="G275" t="s">
+        <v>336</v>
+      </c>
+      <c r="H275" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8">
+      <c r="A277" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8">
+      <c r="B278" t="s">
+        <v>338</v>
+      </c>
+      <c r="C278" t="n">
+        <v>2.667</v>
+      </c>
+      <c r="D278" t="s">
+        <v>339</v>
+      </c>
+      <c r="E278" t="s">
+        <v>119</v>
+      </c>
+      <c r="F278" t="s">
+        <v>272</v>
+      </c>
+      <c r="G278" t="s">
+        <v>35</v>
+      </c>
+      <c r="H278" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8">
+      <c r="A280" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8">
+      <c r="B281" t="s">
+        <v>314</v>
+      </c>
+      <c r="C281" t="n">
+        <v>3.194</v>
+      </c>
+      <c r="D281" t="s">
+        <v>341</v>
+      </c>
+      <c r="E281" t="s">
+        <v>342</v>
+      </c>
+      <c r="F281" t="s">
+        <v>343</v>
+      </c>
+      <c r="G281" t="s">
+        <v>344</v>
+      </c>
+      <c r="H281" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8">
+      <c r="A283" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8">
+      <c r="B284" t="s">
+        <v>346</v>
+      </c>
+      <c r="C284" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="D284" t="s">
+        <v>67</v>
+      </c>
+      <c r="E284" t="s">
+        <v>181</v>
+      </c>
+      <c r="F284" t="s">
+        <v>316</v>
+      </c>
+      <c r="G284" t="s">
+        <v>157</v>
+      </c>
+      <c r="H284" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8">
+      <c r="A286" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8">
+      <c r="B287" t="s">
+        <v>327</v>
+      </c>
+      <c r="C287" t="n">
+        <v>2.821</v>
+      </c>
+      <c r="D287" t="s">
+        <v>162</v>
+      </c>
+      <c r="E287" t="s">
+        <v>27</v>
+      </c>
+      <c r="F287" t="s">
+        <v>11</v>
+      </c>
+      <c r="G287" t="s">
+        <v>81</v>
+      </c>
+      <c r="H287" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8">
+      <c r="A289" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8">
+      <c r="B290" t="s">
+        <v>324</v>
+      </c>
+      <c r="C290" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="D290" t="s">
+        <v>349</v>
+      </c>
+      <c r="E290" t="s">
+        <v>23</v>
+      </c>
+      <c r="F290" t="s">
+        <v>265</v>
+      </c>
+      <c r="G290" t="s">
+        <v>13</v>
+      </c>
+      <c r="H290" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8">
+      <c r="A292" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8">
+      <c r="B293" t="s">
+        <v>351</v>
+      </c>
+      <c r="C293" t="n">
+        <v>3.9535</v>
+      </c>
+      <c r="D293" t="s">
+        <v>352</v>
+      </c>
+      <c r="E293" t="s">
+        <v>353</v>
+      </c>
+      <c r="F293" t="s">
+        <v>354</v>
+      </c>
+      <c r="G293" t="s">
+        <v>13</v>
+      </c>
+      <c r="H293" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8">
+      <c r="A295" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8">
+      <c r="B296" t="s">
+        <v>318</v>
+      </c>
+      <c r="C296" t="n">
+        <v>4</v>
+      </c>
+      <c r="D296" t="s">
+        <v>72</v>
+      </c>
+      <c r="E296" t="s">
+        <v>13</v>
+      </c>
+      <c r="F296" t="s">
+        <v>13</v>
+      </c>
+      <c r="G296" t="s">
+        <v>13</v>
+      </c>
+      <c r="H296" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8">
+      <c r="A298" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8">
+      <c r="B299" t="s">
+        <v>357</v>
+      </c>
+      <c r="C299" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="D299" t="s">
+        <v>96</v>
+      </c>
+      <c r="E299" t="s">
+        <v>183</v>
+      </c>
+      <c r="F299" t="s">
+        <v>13</v>
+      </c>
+      <c r="G299" t="s">
+        <v>13</v>
+      </c>
+      <c r="H299" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8">
+      <c r="A301" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="302" spans="1:8">
+      <c r="B302" t="s">
+        <v>359</v>
+      </c>
+      <c r="C302" t="n">
+        <v>2.8748</v>
+      </c>
+      <c r="D302" t="s">
+        <v>360</v>
+      </c>
+      <c r="E302" t="s">
+        <v>361</v>
+      </c>
+      <c r="F302" t="s">
+        <v>362</v>
+      </c>
+      <c r="G302" t="s">
         <v>227</v>
       </c>
-      <c r="H168" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
-      <c r="A170" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
-      <c r="B171" t="s">
-        <v>230</v>
-      </c>
-      <c r="C171" t="n">
-        <v>2.538</v>
-      </c>
-      <c r="D171" t="s">
-        <v>51</v>
-      </c>
-      <c r="E171" t="s">
-        <v>218</v>
-      </c>
-      <c r="F171" t="s">
-        <v>132</v>
-      </c>
-      <c r="G171" t="s">
-        <v>132</v>
-      </c>
-      <c r="H171" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
-      <c r="A173" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="B174" t="s">
-        <v>232</v>
-      </c>
-      <c r="C174" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D174" t="s">
-        <v>22</v>
-      </c>
-      <c r="E174" t="s">
-        <v>41</v>
-      </c>
-      <c r="F174" t="s">
-        <v>13</v>
-      </c>
-      <c r="G174" t="s">
-        <v>13</v>
-      </c>
-      <c r="H174" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
-      <c r="A176" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
-      <c r="B177" t="s">
-        <v>234</v>
-      </c>
-      <c r="C177" t="n">
+      <c r="H302" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8">
+      <c r="A304" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8">
+      <c r="B305" t="s">
+        <v>365</v>
+      </c>
+      <c r="C305" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="D305" t="s">
+        <v>366</v>
+      </c>
+      <c r="E305" t="s">
+        <v>367</v>
+      </c>
+      <c r="F305" t="s">
+        <v>172</v>
+      </c>
+      <c r="G305" t="s">
+        <v>98</v>
+      </c>
+      <c r="H305" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8">
+      <c r="B306" t="s">
+        <v>368</v>
+      </c>
+      <c r="C306" t="n">
+        <v>3.676</v>
+      </c>
+      <c r="D306" t="s">
+        <v>369</v>
+      </c>
+      <c r="E306" t="s">
+        <v>370</v>
+      </c>
+      <c r="F306" t="s">
+        <v>16</v>
+      </c>
+      <c r="G306" t="s">
+        <v>13</v>
+      </c>
+      <c r="H306" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8">
+      <c r="A308" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="309" spans="1:8">
+      <c r="B309" t="s">
+        <v>357</v>
+      </c>
+      <c r="C309" t="n">
         <v>3.333</v>
       </c>
-      <c r="D177" t="s">
-        <v>235</v>
-      </c>
-      <c r="E177" t="s">
+      <c r="D309" t="s">
         <v>27</v>
       </c>
-      <c r="F177" t="s">
-        <v>236</v>
-      </c>
-      <c r="G177" t="s">
-        <v>13</v>
-      </c>
-      <c r="H177" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
-      <c r="A179" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
-      <c r="B180" t="s">
-        <v>238</v>
-      </c>
-      <c r="C180" t="n">
+      <c r="E309" t="s">
+        <v>87</v>
+      </c>
+      <c r="F309" t="s">
+        <v>23</v>
+      </c>
+      <c r="G309" t="s">
+        <v>13</v>
+      </c>
+      <c r="H309" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="311" spans="1:8">
+      <c r="A311" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8">
+      <c r="B312" t="s">
+        <v>373</v>
+      </c>
+      <c r="C312" t="n">
         <v>4</v>
       </c>
-      <c r="D180" t="s">
+      <c r="D312" t="s">
         <v>72</v>
       </c>
-      <c r="E180" t="s">
-        <v>13</v>
-      </c>
-      <c r="F180" t="s">
-        <v>13</v>
-      </c>
-      <c r="G180" t="s">
-        <v>13</v>
-      </c>
-      <c r="H180" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
-      <c r="A182" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
-      <c r="B183" t="s">
-        <v>240</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D183" t="s">
-        <v>241</v>
-      </c>
-      <c r="E183" t="s">
-        <v>242</v>
-      </c>
-      <c r="F183" t="s">
-        <v>243</v>
-      </c>
-      <c r="G183" t="s">
-        <v>244</v>
-      </c>
-      <c r="H183" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
-      <c r="A185" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
-      <c r="B186" t="s">
-        <v>246</v>
-      </c>
-      <c r="C186" t="n">
+      <c r="E312" t="s">
+        <v>13</v>
+      </c>
+      <c r="F312" t="s">
+        <v>13</v>
+      </c>
+      <c r="G312" t="s">
+        <v>13</v>
+      </c>
+      <c r="H312" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="314" spans="1:8">
+      <c r="A314" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="315" spans="1:8">
+      <c r="B315" t="s">
+        <v>373</v>
+      </c>
+      <c r="C315" t="n">
         <v>4</v>
       </c>
-      <c r="D186" t="s">
+      <c r="D315" t="s">
         <v>72</v>
       </c>
-      <c r="E186" t="s">
-        <v>13</v>
-      </c>
-      <c r="F186" t="s">
-        <v>13</v>
-      </c>
-      <c r="G186" t="s">
-        <v>13</v>
-      </c>
-      <c r="H186" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
-      <c r="A188" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
-      <c r="B189" t="s">
-        <v>248</v>
-      </c>
-      <c r="C189" t="n">
-        <v>2.724</v>
-      </c>
-      <c r="D189" t="s">
-        <v>249</v>
-      </c>
-      <c r="E189" t="s">
-        <v>250</v>
-      </c>
-      <c r="F189" t="s">
-        <v>28</v>
-      </c>
-      <c r="G189" t="s">
-        <v>12</v>
-      </c>
-      <c r="H189" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
-      <c r="A191" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
-      <c r="B192" t="s">
-        <v>253</v>
-      </c>
-      <c r="C192" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="D192" t="s">
-        <v>250</v>
-      </c>
-      <c r="E192" t="s">
-        <v>254</v>
-      </c>
-      <c r="F192" t="s">
-        <v>87</v>
-      </c>
-      <c r="G192" t="s">
-        <v>255</v>
-      </c>
-      <c r="H192" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
-      <c r="A194" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
-      <c r="B195" t="s">
-        <v>257</v>
-      </c>
-      <c r="C195" t="n">
-        <v>3.7123</v>
-      </c>
-      <c r="D195" t="s">
-        <v>258</v>
-      </c>
-      <c r="E195" t="s">
-        <v>259</v>
-      </c>
-      <c r="F195" t="s">
-        <v>243</v>
-      </c>
-      <c r="G195" t="s">
-        <v>244</v>
-      </c>
-      <c r="H195" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
-      <c r="A197" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
-      <c r="B198" t="s">
-        <v>261</v>
-      </c>
-      <c r="C198" t="n">
-        <v>2.933</v>
-      </c>
-      <c r="D198" t="s">
-        <v>262</v>
-      </c>
-      <c r="E198" t="s">
-        <v>263</v>
-      </c>
-      <c r="F198" t="s">
-        <v>264</v>
-      </c>
-      <c r="G198" t="s">
-        <v>24</v>
-      </c>
-      <c r="H198" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8">
-      <c r="A200" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
-      <c r="B201" t="s">
-        <v>266</v>
-      </c>
-      <c r="C201" t="n">
-        <v>3.357</v>
-      </c>
-      <c r="D201" t="s">
-        <v>27</v>
-      </c>
-      <c r="E201" t="s">
-        <v>28</v>
-      </c>
-      <c r="F201" t="s">
-        <v>35</v>
-      </c>
-      <c r="G201" t="s">
-        <v>13</v>
-      </c>
-      <c r="H201" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8">
-      <c r="A203" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
-      <c r="B204" t="s">
-        <v>159</v>
-      </c>
-      <c r="C204" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="D204" t="s">
-        <v>171</v>
-      </c>
-      <c r="E204" t="s">
-        <v>13</v>
-      </c>
-      <c r="F204" t="s">
-        <v>41</v>
-      </c>
-      <c r="G204" t="s">
-        <v>13</v>
-      </c>
-      <c r="H204" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8">
-      <c r="A206" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
-      <c r="B207" t="s">
-        <v>261</v>
-      </c>
-      <c r="C207" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="D207" t="s">
-        <v>23</v>
-      </c>
-      <c r="E207" t="s">
-        <v>241</v>
-      </c>
-      <c r="F207" t="s">
-        <v>236</v>
-      </c>
-      <c r="G207" t="s">
-        <v>236</v>
-      </c>
-      <c r="H207" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8">
-      <c r="A209" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
-      <c r="B210" t="s">
-        <v>246</v>
-      </c>
-      <c r="C210" t="n">
+      <c r="E315" t="s">
+        <v>13</v>
+      </c>
+      <c r="F315" t="s">
+        <v>13</v>
+      </c>
+      <c r="G315" t="s">
+        <v>13</v>
+      </c>
+      <c r="H315" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8">
+      <c r="A317" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8">
+      <c r="B318" t="s">
+        <v>376</v>
+      </c>
+      <c r="C318" t="n">
         <v>4</v>
       </c>
-      <c r="D210" t="s">
+      <c r="D318" t="s">
         <v>72</v>
       </c>
-      <c r="E210" t="s">
-        <v>13</v>
-      </c>
-      <c r="F210" t="s">
-        <v>13</v>
-      </c>
-      <c r="G210" t="s">
-        <v>13</v>
-      </c>
-      <c r="H210" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8">
-      <c r="A212" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
-      <c r="B213" t="s">
-        <v>246</v>
-      </c>
-      <c r="C213" t="n">
+      <c r="E318" t="s">
+        <v>13</v>
+      </c>
+      <c r="F318" t="s">
+        <v>13</v>
+      </c>
+      <c r="G318" t="s">
+        <v>13</v>
+      </c>
+      <c r="H318" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8">
+      <c r="A320" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8">
+      <c r="B321" t="s">
+        <v>376</v>
+      </c>
+      <c r="C321" t="n">
         <v>4</v>
       </c>
-      <c r="D213" t="s">
+      <c r="D321" t="s">
         <v>72</v>
       </c>
-      <c r="E213" t="s">
-        <v>13</v>
-      </c>
-      <c r="F213" t="s">
-        <v>13</v>
-      </c>
-      <c r="G213" t="s">
-        <v>13</v>
-      </c>
-      <c r="H213" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8">
-      <c r="A215" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
-      <c r="B216" t="s">
-        <v>194</v>
-      </c>
-      <c r="C216" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="D216" t="s">
-        <v>22</v>
-      </c>
-      <c r="E216" t="s">
-        <v>41</v>
-      </c>
-      <c r="F216" t="s">
-        <v>13</v>
-      </c>
-      <c r="G216" t="s">
-        <v>13</v>
-      </c>
-      <c r="H216" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8">
-      <c r="A218" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
-      <c r="B219" t="s">
-        <v>273</v>
-      </c>
-      <c r="C219" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D219" t="s">
-        <v>274</v>
-      </c>
-      <c r="E219" t="s">
-        <v>37</v>
-      </c>
-      <c r="F219" t="s">
-        <v>91</v>
-      </c>
-      <c r="G219" t="s">
-        <v>98</v>
-      </c>
-      <c r="H219" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8">
-      <c r="A221" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
-      <c r="B222" t="s">
-        <v>276</v>
-      </c>
-      <c r="C222" t="n">
-        <v>4</v>
-      </c>
-      <c r="D222" t="s">
-        <v>72</v>
-      </c>
-      <c r="E222" t="s">
-        <v>13</v>
-      </c>
-      <c r="F222" t="s">
-        <v>13</v>
-      </c>
-      <c r="G222" t="s">
-        <v>13</v>
-      </c>
-      <c r="H222" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8">
-      <c r="A224" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
-      <c r="B225" t="s">
-        <v>230</v>
-      </c>
-      <c r="C225" t="n">
-        <v>2.333</v>
-      </c>
-      <c r="D225" t="s">
-        <v>236</v>
-      </c>
-      <c r="E225" t="s">
-        <v>278</v>
-      </c>
-      <c r="F225" t="s">
-        <v>279</v>
-      </c>
-      <c r="G225" t="s">
-        <v>279</v>
-      </c>
-      <c r="H225" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8">
-      <c r="A227" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
-      <c r="B228" t="s">
-        <v>281</v>
-      </c>
-      <c r="C228" t="n">
-        <v>3.273</v>
-      </c>
-      <c r="D228" t="s">
-        <v>155</v>
-      </c>
-      <c r="E228" t="s">
-        <v>282</v>
-      </c>
-      <c r="F228" t="s">
-        <v>181</v>
-      </c>
-      <c r="G228" t="s">
-        <v>13</v>
-      </c>
-      <c r="H228" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8">
-      <c r="A230" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
-      <c r="B231" t="s">
-        <v>285</v>
-      </c>
-      <c r="C231" t="n">
-        <v>3.929</v>
-      </c>
-      <c r="D231" t="s">
-        <v>286</v>
-      </c>
-      <c r="E231" t="s">
-        <v>12</v>
-      </c>
-      <c r="F231" t="s">
-        <v>13</v>
-      </c>
-      <c r="G231" t="s">
-        <v>13</v>
-      </c>
-      <c r="H231" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8">
-      <c r="A233" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
-      <c r="B234" t="s">
-        <v>288</v>
-      </c>
-      <c r="C234" t="n">
-        <v>3.469</v>
-      </c>
-      <c r="D234" t="s">
-        <v>289</v>
-      </c>
-      <c r="E234" t="s">
-        <v>290</v>
-      </c>
-      <c r="F234" t="s">
-        <v>291</v>
-      </c>
-      <c r="G234" t="s">
-        <v>13</v>
-      </c>
-      <c r="H234" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8">
-      <c r="A236" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
-      <c r="B237" t="s">
-        <v>293</v>
-      </c>
-      <c r="C237" t="n">
-        <v>3.692</v>
-      </c>
-      <c r="D237" t="s">
-        <v>294</v>
-      </c>
-      <c r="E237" t="s">
-        <v>53</v>
-      </c>
-      <c r="F237" t="s">
-        <v>54</v>
-      </c>
-      <c r="G237" t="s">
-        <v>54</v>
-      </c>
-      <c r="H237" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8">
-      <c r="A239" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
-      <c r="B240" t="s">
-        <v>296</v>
-      </c>
-      <c r="C240" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D240" t="s">
-        <v>297</v>
-      </c>
-      <c r="E240" t="s">
-        <v>179</v>
-      </c>
-      <c r="F240" t="s">
-        <v>283</v>
-      </c>
-      <c r="G240" t="s">
-        <v>13</v>
-      </c>
-      <c r="H240" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8">
-      <c r="A242" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
-      <c r="B243" t="s">
-        <v>299</v>
-      </c>
-      <c r="C243" t="n">
-        <v>3.172</v>
-      </c>
-      <c r="D243" t="s">
-        <v>300</v>
-      </c>
-      <c r="E243" t="s">
-        <v>301</v>
-      </c>
-      <c r="F243" t="s">
-        <v>302</v>
-      </c>
-      <c r="G243" t="s">
-        <v>303</v>
-      </c>
-      <c r="H243" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8">
-      <c r="A245" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
-      <c r="B246" t="s">
-        <v>305</v>
-      </c>
-      <c r="C246" t="n">
-        <v>2.667</v>
-      </c>
-      <c r="D246" t="s">
-        <v>306</v>
-      </c>
-      <c r="E246" t="s">
-        <v>119</v>
-      </c>
-      <c r="F246" t="s">
-        <v>250</v>
-      </c>
-      <c r="G246" t="s">
-        <v>35</v>
-      </c>
-      <c r="H246" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8">
-      <c r="A248" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
-      <c r="B249" t="s">
-        <v>281</v>
-      </c>
-      <c r="C249" t="n">
-        <v>3.194</v>
-      </c>
-      <c r="D249" t="s">
-        <v>308</v>
-      </c>
-      <c r="E249" t="s">
-        <v>309</v>
-      </c>
-      <c r="F249" t="s">
-        <v>310</v>
-      </c>
-      <c r="G249" t="s">
-        <v>311</v>
-      </c>
-      <c r="H249" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
-      <c r="A251" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8">
-      <c r="B252" t="s">
-        <v>313</v>
-      </c>
-      <c r="C252" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="D252" t="s">
-        <v>67</v>
-      </c>
-      <c r="E252" t="s">
-        <v>181</v>
-      </c>
-      <c r="F252" t="s">
-        <v>283</v>
-      </c>
-      <c r="G252" t="s">
-        <v>157</v>
-      </c>
-      <c r="H252" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
-      <c r="A254" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8">
-      <c r="B255" t="s">
-        <v>315</v>
-      </c>
-      <c r="C255" t="n">
-        <v>2.821</v>
-      </c>
-      <c r="D255" t="s">
-        <v>162</v>
-      </c>
-      <c r="E255" t="s">
-        <v>27</v>
-      </c>
-      <c r="F255" t="s">
-        <v>11</v>
-      </c>
-      <c r="G255" t="s">
-        <v>81</v>
-      </c>
-      <c r="H255" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
-      <c r="A257" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8">
-      <c r="B258" t="s">
-        <v>293</v>
-      </c>
-      <c r="C258" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="D258" t="s">
-        <v>258</v>
-      </c>
-      <c r="E258" t="s">
-        <v>23</v>
-      </c>
-      <c r="F258" t="s">
-        <v>243</v>
-      </c>
-      <c r="G258" t="s">
-        <v>13</v>
-      </c>
-      <c r="H258" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
-      <c r="A260" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8">
-      <c r="B261" t="s">
-        <v>318</v>
-      </c>
-      <c r="C261" t="n">
-        <v>3.9535</v>
-      </c>
-      <c r="D261" t="s">
-        <v>319</v>
-      </c>
-      <c r="E261" t="s">
-        <v>320</v>
-      </c>
-      <c r="F261" t="s">
-        <v>321</v>
-      </c>
-      <c r="G261" t="s">
-        <v>13</v>
-      </c>
-      <c r="H261" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
-      <c r="A263" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8">
-      <c r="B264" t="s">
-        <v>285</v>
-      </c>
-      <c r="C264" t="n">
-        <v>4</v>
-      </c>
-      <c r="D264" t="s">
-        <v>72</v>
-      </c>
-      <c r="E264" t="s">
-        <v>13</v>
-      </c>
-      <c r="F264" t="s">
-        <v>13</v>
-      </c>
-      <c r="G264" t="s">
-        <v>13</v>
-      </c>
-      <c r="H264" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
-      <c r="A266" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8">
-      <c r="B267" t="s">
-        <v>324</v>
-      </c>
-      <c r="C267" t="n">
+      <c r="E321" t="s">
+        <v>13</v>
+      </c>
+      <c r="F321" t="s">
+        <v>13</v>
+      </c>
+      <c r="G321" t="s">
+        <v>13</v>
+      </c>
+      <c r="H321" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8">
+      <c r="A323" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8">
+      <c r="B324" t="s">
+        <v>376</v>
+      </c>
+      <c r="C324" t="n">
         <v>3.7</v>
       </c>
-      <c r="D267" t="s">
+      <c r="D324" t="s">
         <v>96</v>
       </c>
-      <c r="E267" t="s">
+      <c r="E324" t="s">
         <v>183</v>
       </c>
-      <c r="F267" t="s">
-        <v>13</v>
-      </c>
-      <c r="G267" t="s">
-        <v>13</v>
-      </c>
-      <c r="H267" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
-      <c r="A269" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8">
-      <c r="B270" t="s">
-        <v>326</v>
-      </c>
-      <c r="C270" t="n">
-        <v>2.8748</v>
-      </c>
-      <c r="D270" t="s">
-        <v>327</v>
-      </c>
-      <c r="E270" t="s">
-        <v>328</v>
-      </c>
-      <c r="F270" t="s">
-        <v>329</v>
-      </c>
-      <c r="G270" t="s">
-        <v>221</v>
-      </c>
-      <c r="H270" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
-      <c r="A272" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8">
-      <c r="B273" t="s">
-        <v>332</v>
-      </c>
-      <c r="C273" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="D273" t="s">
-        <v>333</v>
-      </c>
-      <c r="E273" t="s">
-        <v>334</v>
-      </c>
-      <c r="F273" t="s">
-        <v>172</v>
-      </c>
-      <c r="G273" t="s">
-        <v>98</v>
-      </c>
-      <c r="H273" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
-      <c r="B274" t="s">
-        <v>335</v>
-      </c>
-      <c r="C274" t="n">
-        <v>3.676</v>
-      </c>
-      <c r="D274" t="s">
-        <v>336</v>
-      </c>
-      <c r="E274" t="s">
-        <v>337</v>
-      </c>
-      <c r="F274" t="s">
-        <v>16</v>
-      </c>
-      <c r="G274" t="s">
-        <v>13</v>
-      </c>
-      <c r="H274" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8">
-      <c r="A276" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
-      <c r="B277" t="s">
-        <v>324</v>
-      </c>
-      <c r="C277" t="n">
-        <v>3.333</v>
-      </c>
-      <c r="D277" t="s">
-        <v>27</v>
-      </c>
-      <c r="E277" t="s">
-        <v>87</v>
-      </c>
-      <c r="F277" t="s">
-        <v>23</v>
-      </c>
-      <c r="G277" t="s">
-        <v>13</v>
-      </c>
-      <c r="H277" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8">
-      <c r="A279" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
-      <c r="B280" t="s">
-        <v>340</v>
-      </c>
-      <c r="C280" t="n">
-        <v>4</v>
-      </c>
-      <c r="D280" t="s">
-        <v>72</v>
-      </c>
-      <c r="E280" t="s">
-        <v>13</v>
-      </c>
-      <c r="F280" t="s">
-        <v>13</v>
-      </c>
-      <c r="G280" t="s">
-        <v>13</v>
-      </c>
-      <c r="H280" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8">
-      <c r="A282" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
-      <c r="B283" t="s">
-        <v>340</v>
-      </c>
-      <c r="C283" t="n">
-        <v>4</v>
-      </c>
-      <c r="D283" t="s">
-        <v>72</v>
-      </c>
-      <c r="E283" t="s">
-        <v>13</v>
-      </c>
-      <c r="F283" t="s">
-        <v>13</v>
-      </c>
-      <c r="G283" t="s">
-        <v>13</v>
-      </c>
-      <c r="H283" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8">
-      <c r="A285" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
-      <c r="B286" t="s">
-        <v>343</v>
-      </c>
-      <c r="C286" t="n">
-        <v>4</v>
-      </c>
-      <c r="D286" t="s">
-        <v>72</v>
-      </c>
-      <c r="E286" t="s">
-        <v>13</v>
-      </c>
-      <c r="F286" t="s">
-        <v>13</v>
-      </c>
-      <c r="G286" t="s">
-        <v>13</v>
-      </c>
-      <c r="H286" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8">
-      <c r="A288" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
-      <c r="B289" t="s">
-        <v>343</v>
-      </c>
-      <c r="C289" t="n">
-        <v>4</v>
-      </c>
-      <c r="D289" t="s">
-        <v>72</v>
-      </c>
-      <c r="E289" t="s">
-        <v>13</v>
-      </c>
-      <c r="F289" t="s">
-        <v>13</v>
-      </c>
-      <c r="G289" t="s">
-        <v>13</v>
-      </c>
-      <c r="H289" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8">
-      <c r="A291" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
-      <c r="B292" t="s">
-        <v>343</v>
-      </c>
-      <c r="C292" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="D292" t="s">
-        <v>96</v>
-      </c>
-      <c r="E292" t="s">
-        <v>183</v>
-      </c>
-      <c r="F292" t="s">
-        <v>13</v>
-      </c>
-      <c r="G292" t="s">
-        <v>13</v>
-      </c>
-      <c r="H292" t="s">
+      <c r="F324" t="s">
+        <v>13</v>
+      </c>
+      <c r="G324" t="s">
+        <v>13</v>
+      </c>
+      <c r="H324" t="s">
         <v>13</v>
       </c>
     </row>

--- a/GradeDistributionsDB/Summer2015/Output/Summer2015 AG.xlsx
+++ b/GradeDistributionsDB/Summer2015/Output/Summer2015 AG.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<s:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <s:workbookPr/>
-  <s:bookViews>
-    <s:workbookView activeTab="0"/>
-  </s:bookViews>
-  <s:sheets>
-    <s:sheet name="Sheet" sheetId="1" r:id="rId1"/>
-  </s:sheets>
-  <s:definedNames/>
-  <s:calcPr calcId="124519" fullCalcOnLoad="1"/>
-</s:workbook>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+  </sheets>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+</workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="379">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="391">
   <si>
     <t>Course</t>
   </si>
@@ -40,6 +40,9 @@
     <t>% of F's</t>
   </si>
   <si>
+    <t>% of Q Drop's</t>
+  </si>
+  <si>
     <t>AGCJ-281</t>
   </si>
   <si>
@@ -58,6 +61,9 @@
     <t>0.00%</t>
   </si>
   <si>
+    <t>6.67%</t>
+  </si>
+  <si>
     <t>AGCJ-305</t>
   </si>
   <si>
@@ -181,6 +187,9 @@
     <t>3.85%</t>
   </si>
   <si>
+    <t>14.75%</t>
+  </si>
+  <si>
     <t>AGEC-314</t>
   </si>
   <si>
@@ -199,6 +208,9 @@
     <t>1.16%</t>
   </si>
   <si>
+    <t>3.37%</t>
+  </si>
+  <si>
     <t>AGEC-315</t>
   </si>
   <si>
@@ -250,6 +262,9 @@
     <t>5.41%</t>
   </si>
   <si>
+    <t>11.90%</t>
+  </si>
+  <si>
     <t>AGEC-437</t>
   </si>
   <si>
@@ -313,6 +328,9 @@
     <t>2.50%</t>
   </si>
   <si>
+    <t>2.44%</t>
+  </si>
+  <si>
     <t>ALED-285</t>
   </si>
   <si>
@@ -346,6 +364,9 @@
     <t>13.16%</t>
   </si>
   <si>
+    <t>9.52%</t>
+  </si>
+  <si>
     <t>ALED-340</t>
   </si>
   <si>
@@ -379,6 +400,9 @@
     <t>4.08%</t>
   </si>
   <si>
+    <t>2.00%</t>
+  </si>
+  <si>
     <t>ALED-344</t>
   </si>
   <si>
@@ -424,6 +448,9 @@
     <t>ELBERT C</t>
   </si>
   <si>
+    <t>4.00%</t>
+  </si>
+  <si>
     <t>ALED-440</t>
   </si>
   <si>
@@ -562,6 +589,9 @@
     <t>13.64%</t>
   </si>
   <si>
+    <t>4.35%</t>
+  </si>
+  <si>
     <t>ANSC-481</t>
   </si>
   <si>
@@ -637,6 +667,9 @@
     <t>5.19%</t>
   </si>
   <si>
+    <t>2.53%</t>
+  </si>
+  <si>
     <t>BICH-411</t>
   </si>
   <si>
@@ -649,7 +682,7 @@
     <t>17.78%</t>
   </si>
   <si>
-    <t>6.67%</t>
+    <t>2.17%</t>
   </si>
   <si>
     <t>BICH-412</t>
@@ -700,6 +733,9 @@
     <t>5.77%</t>
   </si>
   <si>
+    <t>3.70%</t>
+  </si>
+  <si>
     <t>ENTO-322</t>
   </si>
   <si>
@@ -718,6 +754,9 @@
     <t>1.18%</t>
   </si>
   <si>
+    <t>3.41%</t>
+  </si>
+  <si>
     <t>ENTO-450</t>
   </si>
   <si>
@@ -742,9 +781,6 @@
     <t>48.15%</t>
   </si>
   <si>
-    <t>3.70%</t>
-  </si>
-  <si>
     <t>14.81%</t>
   </si>
   <si>
@@ -838,6 +874,9 @@
     <t>2.38%</t>
   </si>
   <si>
+    <t>4.55%</t>
+  </si>
+  <si>
     <t>GENE-310</t>
   </si>
   <si>
@@ -962,9 +1001,6 @@
   </si>
   <si>
     <t>27.27%</t>
-  </si>
-  <si>
-    <t>4.55%</t>
   </si>
   <si>
     <t>RPTS-300</t>
@@ -1188,12 +1224,11 @@
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
@@ -1487,15 +1522,15 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H324"/>
+  <dimension ref="A1:I324"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1520,3152 +1555,3497 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="B3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>3.571</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="B6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C6" t="n">
         <v>2.588</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="G6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="H6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="B9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C9" t="n">
         <v>3.733</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G9" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="B12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="C12" t="n">
         <v>3.286</v>
       </c>
       <c r="D12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
+      <c r="H12" t="s">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="B15" t="s">
         <v>28</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
-      <c r="H12" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="B15" t="s">
-        <v>26</v>
       </c>
       <c r="C15" t="n">
         <v>3.786</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C18" t="n">
         <v>3.857</v>
       </c>
       <c r="D18" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E18" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="B21" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C21" t="n">
         <v>3.25</v>
       </c>
       <c r="D21" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="E21" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H21" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C24" t="n">
         <v>3.8</v>
       </c>
       <c r="D24" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E24" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C27" t="n">
         <v>3.9</v>
       </c>
       <c r="D27" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I27" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="B30" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C30" t="n">
         <v>3.8415</v>
       </c>
       <c r="D30" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E30" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C33" t="n">
         <v>2.5855</v>
       </c>
       <c r="D33" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E33" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="F33" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="G33" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H33" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>56</v>
+      </c>
+      <c r="I33" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="B36" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="C36" t="n">
         <v>3.6793</v>
       </c>
       <c r="D36" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E36" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F36" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="G36" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H36" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>63</v>
+      </c>
+      <c r="I36" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="B39" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="C39" t="n">
         <v>3.4485</v>
       </c>
       <c r="D39" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E39" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="F39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G39" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H39" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I39" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="B42" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="C42" t="n">
         <v>3.6655</v>
       </c>
       <c r="D42" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E42" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F42" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="B45" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="C45" t="n">
         <v>4</v>
       </c>
       <c r="D45" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G45" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H45" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I45" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="B48" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C48" t="n">
         <v>2.868</v>
       </c>
       <c r="D48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="E48" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F48" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="G48" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="H48" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I48" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="B51" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="C51" t="n">
         <v>3.58</v>
       </c>
       <c r="D51" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G51" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H51" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I51" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="B54" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C54" t="n">
         <v>3.143</v>
       </c>
       <c r="D54" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F54" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G54" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H54" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>37</v>
+      </c>
+      <c r="I54" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="B57" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="C57" t="n">
         <v>3.167</v>
       </c>
       <c r="D57" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E57" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G57" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H57" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I57" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="B60" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="C60" t="n">
         <v>3.95</v>
       </c>
       <c r="D60" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E60" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="F60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G60" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H60" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I60" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="B63" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C63" t="n">
         <v>4</v>
       </c>
       <c r="D63" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G63" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H63" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I63" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="B66" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C66" t="n">
         <v>3.6</v>
       </c>
       <c r="D66" t="s">
+        <v>101</v>
+      </c>
+      <c r="E66" t="s">
+        <v>102</v>
+      </c>
+      <c r="F66" t="s">
         <v>96</v>
       </c>
-      <c r="E66" t="s">
-        <v>97</v>
-      </c>
-      <c r="F66" t="s">
-        <v>91</v>
-      </c>
       <c r="G66" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H66" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I66" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="B69" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C69" t="n">
         <v>3.765</v>
       </c>
       <c r="D69" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E69" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="F69" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="G69" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H69" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I69" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="B70" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C70" t="n">
         <v>4</v>
       </c>
       <c r="D70" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="B73" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C73" t="n">
         <v>2.474</v>
       </c>
       <c r="D73" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="G73" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H73" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>115</v>
+      </c>
+      <c r="I73" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="B76" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C76" t="n">
         <v>4</v>
       </c>
       <c r="D76" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G76" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H76" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I76" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="B77" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C77" t="n">
         <v>3.37</v>
       </c>
       <c r="D77" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="F77" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
       <c r="G77" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="H77" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I77" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="B78" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="C78" t="n">
         <v>3.49</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F78" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G78" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H78" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I78" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="B81" t="s">
-        <v>122</v>
+        <v>130</v>
       </c>
       <c r="C81" t="n">
         <v>3.2</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>131</v>
       </c>
       <c r="E81" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="F81" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G81" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I81" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="B84" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="C84" t="n">
         <v>3.68</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F84" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G84" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H84" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I84" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="B87" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="C87" t="n">
         <v>3.692</v>
       </c>
       <c r="D87" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="E87" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="F87" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="G87" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H87" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I87" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="B90" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="C90" t="n">
         <v>4</v>
       </c>
       <c r="D90" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G90" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H90" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I90" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="B93" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C93" t="n">
         <v>3.339</v>
       </c>
       <c r="D93" t="s">
-        <v>137</v>
+        <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="F93" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G93" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="H93" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>150</v>
+      </c>
+      <c r="I93" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="B96" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="C96" t="n">
         <v>3.575</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="F96" t="s">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="G96" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H96" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>96</v>
+      </c>
+      <c r="I96" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="B99" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C99" t="n">
         <v>4</v>
       </c>
       <c r="D99" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G99" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H99" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I99" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="B102" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C102" t="n">
         <v>3.396</v>
       </c>
       <c r="D102" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E102" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F102" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>25</v>
+      </c>
+      <c r="I102" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="B105" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="C105" t="n">
         <v>3.677</v>
       </c>
       <c r="D105" t="s">
+        <v>158</v>
+      </c>
+      <c r="E105" t="s">
+        <v>159</v>
+      </c>
+      <c r="F105" t="s">
         <v>149</v>
       </c>
-      <c r="E105" t="s">
-        <v>150</v>
-      </c>
-      <c r="F105" t="s">
-        <v>140</v>
-      </c>
       <c r="G105" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H105" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I105" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="B108" t="s">
-        <v>152</v>
+        <v>161</v>
       </c>
       <c r="C108" t="n">
         <v>3.8125</v>
       </c>
       <c r="D108" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G108" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H108" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I108" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="B111" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C111" t="n">
         <v>3.454</v>
       </c>
       <c r="D111" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E111" t="s">
-        <v>156</v>
+        <v>165</v>
       </c>
       <c r="F111" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="G111" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H111" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I111" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="B114" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C114" t="n">
         <v>3.833</v>
       </c>
       <c r="D114" t="s">
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E114" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G114" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H114" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I114" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="B117" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C117" t="n">
         <v>2.75</v>
       </c>
       <c r="D117" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G117" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="H117" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>86</v>
+      </c>
+      <c r="I117" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="B120" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="C120" t="n">
         <v>3.478</v>
       </c>
       <c r="D120" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="E120" t="s">
+        <v>175</v>
+      </c>
+      <c r="F120" t="s">
         <v>166</v>
       </c>
-      <c r="F120" t="s">
-        <v>157</v>
-      </c>
       <c r="G120" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="H120" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I120" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="B123" t="s">
-        <v>169</v>
+        <v>178</v>
       </c>
       <c r="C123" t="n">
         <v>3.1</v>
       </c>
       <c r="D123" t="s">
-        <v>170</v>
+        <v>179</v>
       </c>
       <c r="E123" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="F123" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G123" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H123" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I123" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="B126" t="s">
-        <v>174</v>
+        <v>183</v>
       </c>
       <c r="C126" t="n">
         <v>3.053</v>
       </c>
       <c r="D126" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="E126" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="F126" t="s">
-        <v>175</v>
+        <v>184</v>
       </c>
       <c r="G126" t="s">
-        <v>176</v>
+        <v>185</v>
       </c>
       <c r="H126" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I126" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="B129" t="s">
-        <v>178</v>
+        <v>187</v>
       </c>
       <c r="C129" t="n">
         <v>2.725</v>
       </c>
       <c r="D129" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="E129" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="F129" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="G129" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H129" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I129" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="B132" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="C132" t="n">
         <v>3.7</v>
       </c>
       <c r="D132" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E132" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G132" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H132" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I132" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="B133" t="s">
-        <v>184</v>
+        <v>194</v>
       </c>
       <c r="C133" t="n">
         <v>3.909</v>
       </c>
       <c r="D133" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="E133" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="F133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G133" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H133" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I133" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="B136" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
       <c r="C136" t="n">
         <v>4</v>
       </c>
       <c r="D136" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G136" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H136" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I136" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="B139" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="C139" t="n">
         <v>3.818</v>
       </c>
       <c r="D139" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="E139" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="F139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="B142" t="s">
-        <v>193</v>
+        <v>203</v>
       </c>
       <c r="C142" t="n">
         <v>3.6</v>
       </c>
       <c r="D142" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F142" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G142" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H142" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I142" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="B143" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C143" t="n">
         <v>3.222</v>
       </c>
       <c r="D143" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G143" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="H143" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>206</v>
+      </c>
+      <c r="I143" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="B144" t="s">
-        <v>197</v>
+        <v>207</v>
       </c>
       <c r="C144" t="n">
         <v>4</v>
       </c>
       <c r="D144" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G144" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H144" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I144" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="B147" t="s">
-        <v>199</v>
+        <v>209</v>
       </c>
       <c r="C147" t="n">
         <v>3.923</v>
       </c>
       <c r="D147" t="s">
-        <v>200</v>
+        <v>210</v>
       </c>
       <c r="E147" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="F147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="B150" t="s">
-        <v>202</v>
+        <v>212</v>
       </c>
       <c r="C150" t="n">
         <v>2.6207</v>
       </c>
       <c r="D150" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="E150" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="F150" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="G150" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H150" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>216</v>
+      </c>
+      <c r="I150" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="B153" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="C153" t="n">
         <v>2.493</v>
       </c>
       <c r="D153" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="E153" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F153" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G153" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="H153" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>15</v>
+      </c>
+      <c r="I153" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="B156" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
       <c r="C156" t="n">
         <v>3.331</v>
       </c>
       <c r="D156" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="E156" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F156" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G156" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H156" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I156" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="B159" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C159" t="n">
         <v>4</v>
       </c>
       <c r="D159" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G159" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H159" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I159" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="B160" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="C160" t="n">
         <v>4</v>
       </c>
       <c r="D160" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="B163" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C163" t="n">
         <v>4</v>
       </c>
       <c r="D163" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G163" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H163" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I163" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="B166" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C166" t="n">
         <v>3.222</v>
       </c>
       <c r="D166" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="E166" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F166" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="G166" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H166" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I166" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="B169" t="s">
-        <v>223</v>
+        <v>234</v>
       </c>
       <c r="C169" t="n">
         <v>2.646</v>
       </c>
       <c r="D169" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="E169" t="s">
-        <v>225</v>
+        <v>236</v>
       </c>
       <c r="F169" t="s">
-        <v>226</v>
+        <v>237</v>
       </c>
       <c r="G169" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H169" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>140</v>
+      </c>
+      <c r="I169" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="B172" t="s">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="C172" t="n">
         <v>3.035</v>
       </c>
       <c r="D172" t="s">
-        <v>230</v>
+        <v>242</v>
       </c>
       <c r="E172" t="s">
+        <v>243</v>
+      </c>
+      <c r="F172" t="s">
+        <v>244</v>
+      </c>
+      <c r="G172" t="s">
+        <v>14</v>
+      </c>
+      <c r="H172" t="s">
+        <v>245</v>
+      </c>
+      <c r="I172" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
+      <c r="A174" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
+      <c r="B175" t="s">
         <v>231</v>
-      </c>
-      <c r="F172" t="s">
-        <v>232</v>
-      </c>
-      <c r="G172" t="s">
-        <v>13</v>
-      </c>
-      <c r="H172" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
-      <c r="A174" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
-      <c r="B175" t="s">
-        <v>220</v>
       </c>
       <c r="C175" t="n">
         <v>3.778</v>
       </c>
       <c r="D175" t="s">
-        <v>195</v>
+        <v>205</v>
       </c>
       <c r="E175" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G175" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H175" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I175" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="B178" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="C178" t="n">
         <v>3.333</v>
       </c>
       <c r="D178" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="E178" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="F178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G178" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H178" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I178" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="B181" t="s">
-        <v>238</v>
+        <v>251</v>
       </c>
       <c r="C181" t="n">
         <v>4</v>
       </c>
       <c r="D181" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G181" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H181" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I181" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="B184" t="s">
-        <v>240</v>
+        <v>253</v>
       </c>
       <c r="C184" t="n">
         <v>2.111</v>
       </c>
       <c r="D184" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="E184" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
       <c r="F184" t="s">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="G184" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="H184" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>255</v>
+      </c>
+      <c r="I184" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="B187" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C187" t="n">
         <v>2.538</v>
       </c>
       <c r="D187" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="E187" t="s">
-        <v>224</v>
+        <v>235</v>
       </c>
       <c r="F187" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="G187" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="H187" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>141</v>
+      </c>
+      <c r="I187" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="B190" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C190" t="n">
         <v>3.8</v>
       </c>
       <c r="D190" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E190" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G190" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H190" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I190" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="B193" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C193" t="n">
         <v>3.714</v>
       </c>
       <c r="D193" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G193" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H193" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I193" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="B196" t="s">
-        <v>250</v>
+        <v>262</v>
       </c>
       <c r="C196" t="n">
         <v>2.969</v>
       </c>
       <c r="D196" t="s">
-        <v>251</v>
+        <v>263</v>
       </c>
       <c r="E196" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F196" t="s">
-        <v>253</v>
+        <v>265</v>
       </c>
       <c r="G196" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="H196" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I196" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="B199" t="s">
-        <v>256</v>
+        <v>268</v>
       </c>
       <c r="C199" t="n">
         <v>3.333</v>
       </c>
       <c r="D199" t="s">
-        <v>257</v>
+        <v>269</v>
       </c>
       <c r="E199" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F199" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="202" spans="1:9">
       <c r="B202" t="s">
-        <v>260</v>
+        <v>272</v>
       </c>
       <c r="C202" t="n">
         <v>4</v>
       </c>
       <c r="D202" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G202" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H202" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I202" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="205" spans="1:9">
       <c r="B205" t="s">
-        <v>262</v>
+        <v>274</v>
       </c>
       <c r="C205" t="n">
         <v>3.5</v>
       </c>
       <c r="D205" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="E205" t="s">
-        <v>264</v>
+        <v>276</v>
       </c>
       <c r="F205" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G205" t="s">
-        <v>266</v>
+        <v>278</v>
       </c>
       <c r="H205" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I205" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="208" spans="1:9">
       <c r="B208" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C208" t="n">
         <v>4</v>
       </c>
       <c r="D208" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G208" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H208" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I208" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="211" spans="1:9">
       <c r="B211" t="s">
-        <v>270</v>
+        <v>282</v>
       </c>
       <c r="C211" t="n">
         <v>2.724</v>
       </c>
       <c r="D211" t="s">
-        <v>271</v>
+        <v>283</v>
       </c>
       <c r="E211" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="F211" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G211" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H211" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8">
+        <v>285</v>
+      </c>
+      <c r="I211" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="214" spans="1:9">
       <c r="B214" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
       <c r="C214" t="n">
         <v>2.81</v>
       </c>
       <c r="D214" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="E214" t="s">
-        <v>276</v>
+        <v>289</v>
       </c>
       <c r="F214" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="G214" t="s">
-        <v>277</v>
+        <v>290</v>
       </c>
       <c r="H214" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I214" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="217" spans="1:9">
       <c r="B217" t="s">
-        <v>279</v>
+        <v>292</v>
       </c>
       <c r="C217" t="n">
         <v>3.7485</v>
       </c>
       <c r="D217" t="s">
-        <v>280</v>
+        <v>293</v>
       </c>
       <c r="E217" t="s">
-        <v>281</v>
+        <v>294</v>
       </c>
       <c r="F217" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="G217" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="H217" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I217" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="220" spans="1:9">
       <c r="B220" t="s">
-        <v>283</v>
+        <v>296</v>
       </c>
       <c r="C220" t="n">
         <v>3.889</v>
       </c>
       <c r="D220" t="s">
-        <v>284</v>
+        <v>297</v>
       </c>
       <c r="E220" t="s">
-        <v>196</v>
+        <v>206</v>
       </c>
       <c r="F220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G220" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H220" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I220" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="223" spans="1:9">
       <c r="B223" t="s">
-        <v>286</v>
+        <v>299</v>
       </c>
       <c r="C223" t="n">
         <v>2.933</v>
       </c>
       <c r="D223" t="s">
-        <v>287</v>
+        <v>300</v>
       </c>
       <c r="E223" t="s">
-        <v>288</v>
+        <v>301</v>
       </c>
       <c r="F223" t="s">
-        <v>289</v>
+        <v>302</v>
       </c>
       <c r="G223" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H223" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8">
+        <v>302</v>
+      </c>
+      <c r="I223" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="226" spans="1:9">
       <c r="B226" t="s">
-        <v>291</v>
+        <v>304</v>
       </c>
       <c r="C226" t="n">
         <v>3.357</v>
       </c>
       <c r="D226" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E226" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="F226" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="G226" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H226" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I226" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="229" spans="1:9">
       <c r="B229" t="s">
-        <v>159</v>
+        <v>168</v>
       </c>
       <c r="C229" t="n">
         <v>2.8</v>
       </c>
       <c r="D229" t="s">
-        <v>171</v>
+        <v>180</v>
       </c>
       <c r="E229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F229" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G229" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H229" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8">
+        <v>43</v>
+      </c>
+      <c r="I229" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="232" spans="1:9">
       <c r="B232" t="s">
-        <v>294</v>
+        <v>307</v>
       </c>
       <c r="C232" t="n">
         <v>3.1605</v>
       </c>
       <c r="D232" t="s">
-        <v>295</v>
+        <v>308</v>
       </c>
       <c r="E232" t="s">
-        <v>296</v>
+        <v>309</v>
       </c>
       <c r="F232" t="s">
-        <v>297</v>
+        <v>310</v>
       </c>
       <c r="G232" t="s">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="H232" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I232" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="235" spans="1:9">
+      <c r="B235" t="s">
         <v>299</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8">
-      <c r="B235" t="s">
-        <v>286</v>
       </c>
       <c r="C235" t="n">
         <v>2.667</v>
       </c>
       <c r="D235" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E235" t="s">
-        <v>263</v>
+        <v>275</v>
       </c>
       <c r="F235" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="G235" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="H235" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8">
+        <v>270</v>
+      </c>
+      <c r="I235" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="238" spans="1:9">
       <c r="B238" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C238" t="n">
         <v>4</v>
       </c>
       <c r="D238" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G238" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H238" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I238" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="241" spans="1:9">
       <c r="B241" t="s">
-        <v>268</v>
+        <v>280</v>
       </c>
       <c r="C241" t="n">
         <v>4</v>
       </c>
       <c r="D241" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G241" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H241" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I241" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="244" spans="1:9">
       <c r="B244" t="s">
-        <v>194</v>
+        <v>204</v>
       </c>
       <c r="C244" t="n">
         <v>3.8</v>
       </c>
       <c r="D244" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E244" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G244" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H244" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I244" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="247" spans="1:9">
       <c r="B247" t="s">
-        <v>304</v>
+        <v>317</v>
       </c>
       <c r="C247" t="n">
         <v>3.35</v>
       </c>
       <c r="D247" t="s">
-        <v>305</v>
+        <v>318</v>
       </c>
       <c r="E247" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="F247" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="G247" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H247" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8">
+        <v>103</v>
+      </c>
+      <c r="I247" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="250" spans="1:9">
       <c r="B250" t="s">
-        <v>307</v>
+        <v>320</v>
       </c>
       <c r="C250" t="n">
         <v>4</v>
       </c>
       <c r="D250" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G250" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H250" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I250" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="251" spans="1:9">
       <c r="B251" t="s">
-        <v>247</v>
+        <v>259</v>
       </c>
       <c r="C251" t="n">
         <v>3.867</v>
       </c>
       <c r="D251" t="s">
-        <v>308</v>
+        <v>321</v>
       </c>
       <c r="E251" t="s">
-        <v>309</v>
+        <v>322</v>
       </c>
       <c r="F251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G251" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H251" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I251" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="253" spans="1:9">
       <c r="A253" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="254" spans="1:9">
       <c r="B254" t="s">
-        <v>245</v>
+        <v>257</v>
       </c>
       <c r="C254" t="n">
         <v>2.333</v>
       </c>
       <c r="D254" t="s">
-        <v>258</v>
+        <v>270</v>
       </c>
       <c r="E254" t="s">
-        <v>311</v>
+        <v>324</v>
       </c>
       <c r="F254" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="G254" t="s">
-        <v>312</v>
+        <v>325</v>
       </c>
       <c r="H254" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8">
+        <v>277</v>
+      </c>
+      <c r="I254" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="256" spans="1:9">
       <c r="A256" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="257" spans="1:9">
       <c r="B257" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C257" t="n">
         <v>3.273</v>
       </c>
       <c r="D257" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E257" t="s">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="F257" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="G257" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H257" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I257" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="259" spans="1:9">
       <c r="A259" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="260" spans="1:9">
       <c r="B260" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C260" t="n">
         <v>3.929</v>
       </c>
       <c r="D260" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="E260" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F260" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G260" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H260" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I260" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="262" spans="1:9">
       <c r="A262" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="263" spans="1:9">
       <c r="B263" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="C263" t="n">
         <v>3.469</v>
       </c>
       <c r="D263" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="E263" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="F263" t="s">
-        <v>254</v>
+        <v>266</v>
       </c>
       <c r="G263" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H263" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I263" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="265" spans="1:9">
       <c r="A265" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="266" spans="1:9">
       <c r="B266" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C266" t="n">
         <v>3.692</v>
       </c>
       <c r="D266" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="E266" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="F266" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G266" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="H266" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I266" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="268" spans="1:9">
       <c r="A268" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="269" spans="1:9">
       <c r="B269" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C269" t="n">
         <v>3.167</v>
       </c>
       <c r="D269" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="E269" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F269" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G269" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H269" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="271" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I269" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="271" spans="1:9">
       <c r="A271" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="272" spans="1:8">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="272" spans="1:9">
       <c r="B272" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="C272" t="n">
         <v>3.5</v>
       </c>
       <c r="D272" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="E272" t="s">
-        <v>179</v>
+        <v>188</v>
       </c>
       <c r="F272" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="G272" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H272" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8">
+        <v>286</v>
+      </c>
+      <c r="I272" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="274" spans="1:9">
       <c r="A274" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="275" spans="1:9">
       <c r="B275" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C275" t="n">
         <v>3.172</v>
       </c>
       <c r="D275" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="E275" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="F275" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="G275" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="H275" t="s">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8">
+        <v>348</v>
+      </c>
+      <c r="I275" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="277" spans="1:9">
       <c r="A277" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="278" spans="1:9">
       <c r="B278" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="C278" t="n">
         <v>2.667</v>
       </c>
       <c r="D278" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="E278" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F278" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
       <c r="G278" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H278" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="280" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I278" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="280" spans="1:9">
       <c r="A280" t="s">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="281" spans="1:9">
       <c r="B281" t="s">
-        <v>314</v>
+        <v>327</v>
       </c>
       <c r="C281" t="n">
         <v>3.194</v>
       </c>
       <c r="D281" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="E281" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F281" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="G281" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H281" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8">
+        <v>356</v>
+      </c>
+      <c r="I281" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="283" spans="1:9">
       <c r="A283" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="284" spans="1:9">
       <c r="B284" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C284" t="n">
         <v>3.5</v>
       </c>
       <c r="D284" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="E284" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="F284" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="G284" t="s">
-        <v>157</v>
+        <v>166</v>
       </c>
       <c r="H284" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I284" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="286" spans="1:9">
       <c r="A286" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="287" spans="1:9">
       <c r="B287" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C287" t="n">
         <v>2.821</v>
       </c>
       <c r="D287" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="E287" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F287" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G287" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="H287" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I287" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="289" spans="1:9">
       <c r="A289" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="290" spans="1:9">
       <c r="B290" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="C290" t="n">
         <v>3.75</v>
       </c>
       <c r="D290" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="E290" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="F290" t="s">
-        <v>265</v>
+        <v>277</v>
       </c>
       <c r="G290" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H290" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I290" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="292" spans="1:9">
       <c r="A292" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="293" spans="1:9">
       <c r="B293" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C293" t="n">
         <v>3.9535</v>
       </c>
       <c r="D293" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="E293" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="F293" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="G293" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H293" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I293" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="295" spans="1:9">
       <c r="A295" t="s">
-        <v>355</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="296" spans="1:9">
       <c r="B296" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C296" t="n">
         <v>4</v>
       </c>
       <c r="D296" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E296" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F296" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G296" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H296" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="298" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I296" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="298" spans="1:9">
       <c r="A298" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="299" spans="1:9">
       <c r="B299" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C299" t="n">
         <v>3.7</v>
       </c>
       <c r="D299" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E299" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G299" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H299" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I299" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="301" spans="1:9">
       <c r="A301" t="s">
-        <v>358</v>
-      </c>
-    </row>
-    <row r="302" spans="1:8">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="302" spans="1:9">
       <c r="B302" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="C302" t="n">
         <v>2.8748</v>
       </c>
       <c r="D302" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="E302" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="F302" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="G302" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="H302" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8">
+        <v>375</v>
+      </c>
+      <c r="I302" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="304" spans="1:9">
       <c r="A304" t="s">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="305" spans="1:9">
       <c r="B305" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="C305" t="n">
         <v>3.35</v>
       </c>
       <c r="D305" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="E305" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="F305" t="s">
-        <v>172</v>
+        <v>181</v>
       </c>
       <c r="G305" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H305" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I305" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="306" spans="1:9">
       <c r="B306" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="C306" t="n">
         <v>3.676</v>
       </c>
       <c r="D306" t="s">
+        <v>381</v>
+      </c>
+      <c r="E306" t="s">
+        <v>382</v>
+      </c>
+      <c r="F306" t="s">
+        <v>18</v>
+      </c>
+      <c r="G306" t="s">
+        <v>14</v>
+      </c>
+      <c r="H306" t="s">
+        <v>14</v>
+      </c>
+      <c r="I306" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="308" spans="1:9">
+      <c r="A308" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="309" spans="1:9">
+      <c r="B309" t="s">
         <v>369</v>
-      </c>
-      <c r="E306" t="s">
-        <v>370</v>
-      </c>
-      <c r="F306" t="s">
-        <v>16</v>
-      </c>
-      <c r="G306" t="s">
-        <v>13</v>
-      </c>
-      <c r="H306" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8">
-      <c r="A308" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="309" spans="1:8">
-      <c r="B309" t="s">
-        <v>357</v>
       </c>
       <c r="C309" t="n">
         <v>3.333</v>
       </c>
       <c r="D309" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E309" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="F309" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="G309" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H309" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="311" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I309" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="311" spans="1:9">
       <c r="A311" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="312" spans="1:9">
       <c r="B312" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C312" t="n">
         <v>4</v>
       </c>
       <c r="D312" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G312" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H312" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="314" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I312" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="314" spans="1:9">
       <c r="A314" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="315" spans="1:8">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="315" spans="1:9">
       <c r="B315" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="C315" t="n">
         <v>4</v>
       </c>
       <c r="D315" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G315" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H315" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I315" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="317" spans="1:9">
       <c r="A317" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="318" spans="1:9">
       <c r="B318" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C318" t="n">
         <v>4</v>
       </c>
       <c r="D318" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G318" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H318" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I318" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="320" spans="1:9">
       <c r="A320" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="321" spans="1:9">
       <c r="B321" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C321" t="n">
         <v>4</v>
       </c>
       <c r="D321" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="E321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G321" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H321" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="323" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I321" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="323" spans="1:9">
       <c r="A323" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="324" spans="1:9">
       <c r="B324" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="C324" t="n">
         <v>3.7</v>
       </c>
       <c r="D324" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="E324" t="s">
-        <v>183</v>
+        <v>193</v>
       </c>
       <c r="F324" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G324" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H324" t="s">
-        <v>13</v>
+        <v>14</v>
+      </c>
+      <c r="I324" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
